--- a/dist/Products.xlsx
+++ b/dist/Products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS\Desktop\Cart\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS\Desktop\Export\Python\SpectaclesCartMatiMati\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C009E12-7849-45DC-99BE-36C60421D5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B49E1-C555-41B0-A96F-DBEA4A92D7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,13 +405,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -577,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>

--- a/dist/Products.xlsx
+++ b/dist/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS\Desktop\Export\Python\SpectaclesCartMatiMati\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B49E1-C555-41B0-A96F-DBEA4A92D7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D3A4AD-D42E-4B19-8481-ECF86399E380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Accessories,Spectacles,Offer</t>
   </si>
   <si>
-    <t>C:\Users\GS\Desktop\Νέος φάκελος\sun.png</t>
-  </si>
-  <si>
     <t>Cleaning Spray</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>Nose Pads</t>
+  </si>
+  <si>
+    <t>C:\Users\GS\Desktop\Export\Python\SpectaclesCartMatiMati\nosepads.png</t>
+  </si>
+  <si>
+    <t>C:\Users\GS\Desktop\Export\Python\SpectaclesCartMatiMati\sun.png</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +416,7 @@
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -441,7 +444,7 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -455,7 +458,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,7 +472,7 @@
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,7 +486,7 @@
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,7 +500,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,7 +514,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,49 +542,49 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
